--- a/Core_Analysis_CPOC/CoreData_CPOC.xlsx
+++ b/Core_Analysis_CPOC/CoreData_CPOC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\CPOC\P5628_MTJA_CCS_Feasibility\ERCE_Working\Petrophysics\1_CORE_RAW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\Core_Analysis_CPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2A3B31-06B8-4C1E-88C3-59D535E12582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A1FC7-183E-44C7-8384-24552F57DE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="30" windowWidth="28470" windowHeight="15645" activeTab="5" xr2:uid="{86A6AE00-3368-4BE0-99E9-011D70A7D6D3}"/>
+    <workbookView xWindow="28860" yWindow="90" windowWidth="18885" windowHeight="15450" activeTab="1" xr2:uid="{86A6AE00-3368-4BE0-99E9-011D70A7D6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Elec_Prop_N" sheetId="5" r:id="rId5"/>
     <sheet name="Elec_Prop_N_Star" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$H$807</definedName>
+  </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1722,7 +1725,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[Blue]General"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2129,16 +2132,16 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,10 +2180,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2523,10 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25FF2DF-7C89-4CF3-B01A-EB07950AFA9B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N786" sqref="N786"/>
+      <selection sqref="A1:H453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>0</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>0</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>0</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>0</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>0</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>0</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>0</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>0</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>0</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>0</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>0</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>0</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>0</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>0</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -4414,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>0</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>0</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>0</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>0</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>0</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>0</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>0</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>0</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>0</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>0</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>0</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>0</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>0</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>0</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>0</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>0</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>0</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>0</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>0</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>0</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>0</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>0</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>84</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>84</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>84</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>84</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>84</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>84</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>84</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>84</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>84</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>84</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>84</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>84</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>84</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>84</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>84</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>84</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>84</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>84</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>84</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>84</v>
       </c>
@@ -5948,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>84</v>
       </c>
@@ -5974,7 +5978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>84</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>84</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>84</v>
       </c>
@@ -6052,7 +6056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>84</v>
       </c>
@@ -6078,7 +6082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>84</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>84</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>84</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>84</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>84</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>84</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>84</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>84</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>84</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>84</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>84</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>84</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>84</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>84</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>84</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>84</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>84</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>84</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>84</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>84</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>84</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>84</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>84</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>84</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>84</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>84</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>84</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>84</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>84</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>84</v>
       </c>
@@ -6858,7 +6862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>84</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>84</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>84</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>84</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>84</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>84</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>84</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>84</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>84</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>84</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>84</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>84</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>84</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>84</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>84</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>84</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>84</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>84</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>84</v>
       </c>
@@ -7352,7 +7356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>84</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>84</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>84</v>
       </c>
@@ -7430,7 +7434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>84</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>84</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>84</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>84</v>
       </c>
@@ -7534,7 +7538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>84</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>84</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>84</v>
       </c>
@@ -7612,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>84</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>84</v>
       </c>
@@ -7664,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
         <v>84</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>84</v>
       </c>
@@ -7716,7 +7720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>84</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
         <v>84</v>
       </c>
@@ -7794,7 +7798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>84</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>84</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
         <v>84</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
         <v>84</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>84</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>84</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>84</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>84</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
         <v>84</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>84</v>
       </c>
@@ -8054,7 +8058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>84</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>84</v>
       </c>
@@ -8106,7 +8110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
         <v>84</v>
       </c>
@@ -8132,7 +8136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>84</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>101</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>101</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>101</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>101</v>
       </c>
@@ -8262,7 +8266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>101</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>101</v>
       </c>
@@ -8314,7 +8318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>101</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>101</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
         <v>101</v>
       </c>
@@ -8392,7 +8396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
         <v>114</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
         <v>114</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>114</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>114</v>
       </c>
@@ -8496,7 +8500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>114</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>114</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>114</v>
       </c>
@@ -8574,7 +8578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>114</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>114</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
         <v>114</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>114</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>114</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>114</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>114</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>114</v>
       </c>
@@ -8782,7 +8786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
         <v>114</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
         <v>114</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
         <v>114</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
         <v>114</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
         <v>134</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>134</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>134</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>134</v>
       </c>
@@ -8990,7 +8994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>134</v>
       </c>
@@ -9016,7 +9020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>134</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>134</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
         <v>134</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
         <v>134</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>134</v>
       </c>
@@ -9146,7 +9150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>134</v>
       </c>
@@ -9172,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>134</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
         <v>134</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
         <v>134</v>
       </c>
@@ -9250,7 +9254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
         <v>134</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
         <v>134</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
         <v>134</v>
       </c>
@@ -9328,7 +9332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
         <v>134</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
         <v>134</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
         <v>134</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
         <v>134</v>
       </c>
@@ -9432,7 +9436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
         <v>134</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
         <v>134</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
         <v>134</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
         <v>134</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
         <v>134</v>
       </c>
@@ -9562,7 +9566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
         <v>134</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
         <v>134</v>
       </c>
@@ -9614,7 +9618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
         <v>134</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
         <v>134</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
         <v>134</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>134</v>
       </c>
@@ -9718,7 +9722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>134</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>134</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>134</v>
       </c>
@@ -9796,7 +9800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
         <v>134</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>134</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>134</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>134</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
         <v>134</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
         <v>134</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
         <v>134</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
         <v>134</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>134</v>
       </c>
@@ -10030,7 +10034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>134</v>
       </c>
@@ -10056,7 +10060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
         <v>134</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
         <v>134</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
         <v>134</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
         <v>183</v>
       </c>
@@ -10160,7 +10164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
         <v>183</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
         <v>183</v>
       </c>
@@ -10212,7 +10216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
         <v>183</v>
       </c>
@@ -10238,7 +10242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
         <v>183</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>183</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
         <v>183</v>
       </c>
@@ -10316,7 +10320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>183</v>
       </c>
@@ -10342,7 +10346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>183</v>
       </c>
@@ -10368,7 +10372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>183</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>194</v>
       </c>
@@ -10420,7 +10424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>194</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
         <v>194</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>194</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>194</v>
       </c>
@@ -10524,7 +10528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
         <v>194</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
         <v>194</v>
       </c>
@@ -10576,7 +10580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>194</v>
       </c>
@@ -10602,7 +10606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>194</v>
       </c>
@@ -10628,7 +10632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>194</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
         <v>194</v>
       </c>
@@ -10680,7 +10684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>194</v>
       </c>
@@ -10706,7 +10710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
         <v>194</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
         <v>194</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
         <v>194</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
         <v>194</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
         <v>194</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
         <v>194</v>
       </c>
@@ -10862,7 +10866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>194</v>
       </c>
@@ -10888,7 +10892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
         <v>194</v>
       </c>
@@ -10914,7 +10918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>194</v>
       </c>
@@ -10940,7 +10944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
         <v>194</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
         <v>194</v>
       </c>
@@ -10992,7 +10996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
         <v>194</v>
       </c>
@@ -11018,7 +11022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
         <v>194</v>
       </c>
@@ -11044,7 +11048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
         <v>194</v>
       </c>
@@ -11070,7 +11074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
         <v>194</v>
       </c>
@@ -11096,7 +11100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11" t="s">
         <v>194</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
         <v>194</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
         <v>194</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
         <v>194</v>
       </c>
@@ -11200,7 +11204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
         <v>194</v>
       </c>
@@ -11226,7 +11230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
         <v>194</v>
       </c>
@@ -11252,7 +11256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>194</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
         <v>194</v>
       </c>
@@ -11304,7 +11308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
         <v>194</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
         <v>194</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
         <v>194</v>
       </c>
@@ -11382,7 +11386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
         <v>194</v>
       </c>
@@ -11408,7 +11412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
         <v>194</v>
       </c>
@@ -11434,7 +11438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>194</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
         <v>194</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
         <v>194</v>
       </c>
@@ -11512,7 +11516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>194</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
         <v>194</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
         <v>194</v>
       </c>
@@ -11590,7 +11594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
         <v>194</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
         <v>194</v>
       </c>
@@ -11642,7 +11646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
         <v>194</v>
       </c>
@@ -11668,7 +11672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
         <v>194</v>
       </c>
@@ -11694,7 +11698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
         <v>194</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
         <v>194</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
         <v>194</v>
       </c>
@@ -11772,7 +11776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
         <v>194</v>
       </c>
@@ -11798,7 +11802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
         <v>194</v>
       </c>
@@ -11824,7 +11828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
         <v>194</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>194</v>
       </c>
@@ -11876,7 +11880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
         <v>194</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
         <v>194</v>
       </c>
@@ -11928,7 +11932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
         <v>194</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
         <v>194</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
         <v>194</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>194</v>
       </c>
@@ -12032,7 +12036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
         <v>194</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
         <v>194</v>
       </c>
@@ -12084,7 +12088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
         <v>194</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
         <v>194</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
         <v>194</v>
       </c>
@@ -12162,7 +12166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
         <v>194</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="11" t="s">
         <v>194</v>
       </c>
@@ -12214,7 +12218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
         <v>194</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="11" t="s">
         <v>194</v>
       </c>
@@ -12266,7 +12270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="11" t="s">
         <v>194</v>
       </c>
@@ -12292,7 +12296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="11" t="s">
         <v>194</v>
       </c>
@@ -12318,7 +12322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
         <v>194</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="11" t="s">
         <v>194</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="11" t="s">
         <v>194</v>
       </c>
@@ -12396,7 +12400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
         <v>194</v>
       </c>
@@ -12422,7 +12426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="11" t="s">
         <v>194</v>
       </c>
@@ -12448,7 +12452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
         <v>194</v>
       </c>
@@ -12474,7 +12478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="11" t="s">
         <v>194</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
         <v>194</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
         <v>194</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
         <v>194</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11" t="s">
         <v>194</v>
       </c>
@@ -12604,7 +12608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11" t="s">
         <v>194</v>
       </c>
@@ -12630,7 +12634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="11" t="s">
         <v>194</v>
       </c>
@@ -12656,7 +12660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="11" t="s">
         <v>194</v>
       </c>
@@ -12682,7 +12686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="11" t="s">
         <v>194</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="11" t="s">
         <v>194</v>
       </c>
@@ -12734,7 +12738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="11" t="s">
         <v>194</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="11" t="s">
         <v>194</v>
       </c>
@@ -12786,7 +12790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
         <v>194</v>
       </c>
@@ -12812,7 +12816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="11" t="s">
         <v>194</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="11" t="s">
         <v>194</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="11" t="s">
         <v>194</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
         <v>194</v>
       </c>
@@ -12916,7 +12920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="11" t="s">
         <v>194</v>
       </c>
@@ -12942,7 +12946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="11" t="s">
         <v>194</v>
       </c>
@@ -12968,7 +12972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="11" t="s">
         <v>194</v>
       </c>
@@ -12994,7 +12998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
         <v>194</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
         <v>194</v>
       </c>
@@ -13046,7 +13050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="11" t="s">
         <v>194</v>
       </c>
@@ -13072,7 +13076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
         <v>194</v>
       </c>
@@ -13098,7 +13102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="11" t="s">
         <v>194</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
         <v>194</v>
       </c>
@@ -13150,7 +13154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
         <v>194</v>
       </c>
@@ -13176,7 +13180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="11" t="s">
         <v>194</v>
       </c>
@@ -13202,7 +13206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
         <v>194</v>
       </c>
@@ -13228,7 +13232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="11" t="s">
         <v>194</v>
       </c>
@@ -13254,7 +13258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
         <v>194</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
         <v>194</v>
       </c>
@@ -13306,7 +13310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
         <v>194</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
         <v>194</v>
       </c>
@@ -13358,7 +13362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
         <v>194</v>
       </c>
@@ -13384,7 +13388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
         <v>194</v>
       </c>
@@ -13410,7 +13414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
         <v>194</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
         <v>194</v>
       </c>
@@ -13462,7 +13466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
         <v>194</v>
       </c>
@@ -13488,7 +13492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="11" t="s">
         <v>194</v>
       </c>
@@ -13514,7 +13518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
         <v>194</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
         <v>194</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
         <v>194</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
         <v>194</v>
       </c>
@@ -13618,7 +13622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="11" t="s">
         <v>194</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>194</v>
       </c>
@@ -13670,7 +13674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
         <v>194</v>
       </c>
@@ -13696,7 +13700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="11" t="s">
         <v>194</v>
       </c>
@@ -13722,7 +13726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
         <v>194</v>
       </c>
@@ -13748,7 +13752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
         <v>194</v>
       </c>
@@ -13774,7 +13778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
         <v>194</v>
       </c>
@@ -13800,7 +13804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
         <v>194</v>
       </c>
@@ -14320,7 +14324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="11" t="s">
         <v>115</v>
       </c>
@@ -14346,7 +14350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
         <v>115</v>
       </c>
@@ -14372,7 +14376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
         <v>115</v>
       </c>
@@ -14398,7 +14402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>115</v>
       </c>
@@ -14424,7 +14428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
         <v>115</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>115</v>
       </c>
@@ -14476,7 +14480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
         <v>115</v>
       </c>
@@ -14502,7 +14506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11" t="s">
         <v>115</v>
       </c>
@@ -14528,7 +14532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
         <v>115</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>115</v>
       </c>
@@ -14580,7 +14584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
         <v>115</v>
       </c>
@@ -14606,7 +14610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>115</v>
       </c>
@@ -14632,7 +14636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>115</v>
       </c>
@@ -14658,7 +14662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="11" t="s">
         <v>115</v>
       </c>
@@ -14684,7 +14688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
         <v>115</v>
       </c>
@@ -14710,7 +14714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
         <v>115</v>
       </c>
@@ -14736,7 +14740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
         <v>115</v>
       </c>
@@ -14762,7 +14766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>115</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
         <v>115</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
         <v>115</v>
       </c>
@@ -14840,7 +14844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
         <v>115</v>
       </c>
@@ -14866,7 +14870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
         <v>115</v>
       </c>
@@ -14892,7 +14896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
         <v>115</v>
       </c>
@@ -14918,7 +14922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
         <v>115</v>
       </c>
@@ -14944,7 +14948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
         <v>115</v>
       </c>
@@ -14970,7 +14974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
         <v>115</v>
       </c>
@@ -14996,7 +15000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
         <v>115</v>
       </c>
@@ -15022,7 +15026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>115</v>
       </c>
@@ -15048,7 +15052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
         <v>115</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
         <v>115</v>
       </c>
@@ -15100,7 +15104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
         <v>115</v>
       </c>
@@ -15126,7 +15130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
         <v>115</v>
       </c>
@@ -15152,7 +15156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
         <v>115</v>
       </c>
@@ -15178,7 +15182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
         <v>115</v>
       </c>
@@ -15204,7 +15208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
         <v>115</v>
       </c>
@@ -15230,7 +15234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
         <v>115</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
         <v>115</v>
       </c>
@@ -15282,7 +15286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
         <v>115</v>
       </c>
@@ -15308,7 +15312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
         <v>115</v>
       </c>
@@ -15334,7 +15338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
         <v>115</v>
       </c>
@@ -15360,7 +15364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
         <v>115</v>
       </c>
@@ -15386,7 +15390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
         <v>115</v>
       </c>
@@ -15412,7 +15416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
         <v>115</v>
       </c>
@@ -15438,7 +15442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
         <v>115</v>
       </c>
@@ -15464,7 +15468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
         <v>115</v>
       </c>
@@ -15490,7 +15494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
         <v>115</v>
       </c>
@@ -15516,7 +15520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="11" t="s">
         <v>115</v>
       </c>
@@ -15542,7 +15546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="11" t="s">
         <v>115</v>
       </c>
@@ -15568,7 +15572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="11" t="s">
         <v>115</v>
       </c>
@@ -15594,7 +15598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
         <v>115</v>
       </c>
@@ -15620,7 +15624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="11" t="s">
         <v>115</v>
       </c>
@@ -15646,7 +15650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="11" t="s">
         <v>115</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
         <v>115</v>
       </c>
@@ -15698,7 +15702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
         <v>115</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
         <v>115</v>
       </c>
@@ -15750,7 +15754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="11" t="s">
         <v>115</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="11" t="s">
         <v>115</v>
       </c>
@@ -15802,7 +15806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
         <v>115</v>
       </c>
@@ -15828,7 +15832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="11" t="s">
         <v>115</v>
       </c>
@@ -15854,7 +15858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
         <v>115</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
         <v>115</v>
       </c>
@@ -15906,7 +15910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="11" t="s">
         <v>115</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="11" t="s">
         <v>115</v>
       </c>
@@ -15958,7 +15962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="11" t="s">
         <v>115</v>
       </c>
@@ -15984,7 +15988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="11" t="s">
         <v>115</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="11" t="s">
         <v>115</v>
       </c>
@@ -16036,7 +16040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="11" t="s">
         <v>115</v>
       </c>
@@ -16062,7 +16066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
         <v>1</v>
       </c>
@@ -16088,7 +16092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="11" t="s">
         <v>1</v>
       </c>
@@ -16114,7 +16118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="11" t="s">
         <v>1</v>
       </c>
@@ -16140,7 +16144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="11" t="s">
         <v>1</v>
       </c>
@@ -16166,7 +16170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="11" t="s">
         <v>1</v>
       </c>
@@ -16190,7 +16194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="11" t="s">
         <v>1</v>
       </c>
@@ -16214,7 +16218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="11" t="s">
         <v>1</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
         <v>1</v>
       </c>
@@ -16264,7 +16268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="11" t="s">
         <v>1</v>
       </c>
@@ -16290,7 +16294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
         <v>1</v>
       </c>
@@ -16316,7 +16320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
         <v>1</v>
       </c>
@@ -16342,7 +16346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
         <v>1</v>
       </c>
@@ -16368,7 +16372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="11" t="s">
         <v>1</v>
       </c>
@@ -16394,7 +16398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
         <v>1</v>
       </c>
@@ -16420,7 +16424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="11" t="s">
         <v>1</v>
       </c>
@@ -16446,7 +16450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="11" t="s">
         <v>1</v>
       </c>
@@ -16472,7 +16476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="11" t="s">
         <v>1</v>
       </c>
@@ -16498,7 +16502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
         <v>1</v>
       </c>
@@ -16524,7 +16528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="11" t="s">
         <v>1</v>
       </c>
@@ -16550,7 +16554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="11" t="s">
         <v>1</v>
       </c>
@@ -16576,7 +16580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
         <v>1</v>
       </c>
@@ -16602,7 +16606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
         <v>1</v>
       </c>
@@ -16628,7 +16632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="11" t="s">
         <v>1</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="11" t="s">
         <v>1</v>
       </c>
@@ -16680,7 +16684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
         <v>1</v>
       </c>
@@ -16706,7 +16710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="11" t="s">
         <v>1</v>
       </c>
@@ -16732,7 +16736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="11" t="s">
         <v>1</v>
       </c>
@@ -16758,7 +16762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="11" t="s">
         <v>1</v>
       </c>
@@ -16782,7 +16786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
         <v>1</v>
       </c>
@@ -16808,7 +16812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="11" t="s">
         <v>1</v>
       </c>
@@ -16834,7 +16838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="11" t="s">
         <v>1</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="11" t="s">
         <v>1</v>
       </c>
@@ -16886,7 +16890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
         <v>1</v>
       </c>
@@ -16912,7 +16916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
         <v>1</v>
       </c>
@@ -16938,7 +16942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="11" t="s">
         <v>1</v>
       </c>
@@ -16964,7 +16968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="11" t="s">
         <v>1</v>
       </c>
@@ -16988,7 +16992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="11" t="s">
         <v>1</v>
       </c>
@@ -17014,7 +17018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
         <v>1</v>
       </c>
@@ -17040,7 +17044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="11" t="s">
         <v>1</v>
       </c>
@@ -17066,7 +17070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="11" t="s">
         <v>1</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="11" t="s">
         <v>1</v>
       </c>
@@ -17116,7 +17120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="11" t="s">
         <v>1</v>
       </c>
@@ -17142,7 +17146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="11" t="s">
         <v>1</v>
       </c>
@@ -17168,7 +17172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="11" t="s">
         <v>1</v>
       </c>
@@ -17194,7 +17198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="11" t="s">
         <v>1</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
         <v>1</v>
       </c>
@@ -17246,7 +17250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="11" t="s">
         <v>1</v>
       </c>
@@ -17272,7 +17276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="11" t="s">
         <v>1</v>
       </c>
@@ -17298,7 +17302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="11" t="s">
         <v>1</v>
       </c>
@@ -17324,7 +17328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="11" t="s">
         <v>1</v>
       </c>
@@ -17350,7 +17354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="11" t="s">
         <v>1</v>
       </c>
@@ -17376,7 +17380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
         <v>1</v>
       </c>
@@ -17402,7 +17406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="11" t="s">
         <v>1</v>
       </c>
@@ -17428,7 +17432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="11" t="s">
         <v>1</v>
       </c>
@@ -17454,7 +17458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="11" t="s">
         <v>1</v>
       </c>
@@ -17480,7 +17484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="11" t="s">
         <v>1</v>
       </c>
@@ -17506,7 +17510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
         <v>1</v>
       </c>
@@ -17532,7 +17536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="11" t="s">
         <v>1</v>
       </c>
@@ -17558,7 +17562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="11" t="s">
         <v>1</v>
       </c>
@@ -17584,7 +17588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
         <v>1</v>
       </c>
@@ -17610,7 +17614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="11" t="s">
         <v>1</v>
       </c>
@@ -17636,7 +17640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="11" t="s">
         <v>1</v>
       </c>
@@ -17662,7 +17666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="11" t="s">
         <v>1</v>
       </c>
@@ -17688,7 +17692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="11" t="s">
         <v>1</v>
       </c>
@@ -17714,7 +17718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="11" t="s">
         <v>1</v>
       </c>
@@ -17740,7 +17744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="11" t="s">
         <v>1</v>
       </c>
@@ -17766,7 +17770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="11" t="s">
         <v>1</v>
       </c>
@@ -17792,7 +17796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="11" t="s">
         <v>1</v>
       </c>
@@ -17818,7 +17822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="11" t="s">
         <v>1</v>
       </c>
@@ -17844,7 +17848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="11" t="s">
         <v>1</v>
       </c>
@@ -17870,7 +17874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="11" t="s">
         <v>1</v>
       </c>
@@ -17894,7 +17898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="11" t="s">
         <v>1</v>
       </c>
@@ -17920,7 +17924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="11" t="s">
         <v>1</v>
       </c>
@@ -17946,7 +17950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="11" t="s">
         <v>1</v>
       </c>
@@ -17972,7 +17976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="11" t="s">
         <v>1</v>
       </c>
@@ -17998,7 +18002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="11" t="s">
         <v>1</v>
       </c>
@@ -18024,7 +18028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="11" t="s">
         <v>1</v>
       </c>
@@ -18048,7 +18052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="11" t="s">
         <v>1</v>
       </c>
@@ -18074,7 +18078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="11" t="s">
         <v>1</v>
       </c>
@@ -18098,7 +18102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="11" t="s">
         <v>1</v>
       </c>
@@ -18124,7 +18128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="11" t="s">
         <v>1</v>
       </c>
@@ -18148,7 +18152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="11" t="s">
         <v>1</v>
       </c>
@@ -18174,7 +18178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="11" t="s">
         <v>1</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="11" t="s">
         <v>1</v>
       </c>
@@ -18226,7 +18230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="11" t="s">
         <v>1</v>
       </c>
@@ -18250,7 +18254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="11" t="s">
         <v>1</v>
       </c>
@@ -18276,7 +18280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="11" t="s">
         <v>1</v>
       </c>
@@ -18302,7 +18306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="11" t="s">
         <v>1</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="11" t="s">
         <v>1</v>
       </c>
@@ -18350,7 +18354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="11" t="s">
         <v>1</v>
       </c>
@@ -18374,7 +18378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="11" t="s">
         <v>1</v>
       </c>
@@ -18398,7 +18402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="11" t="s">
         <v>1</v>
       </c>
@@ -18422,7 +18426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="11" t="s">
         <v>1</v>
       </c>
@@ -18446,7 +18450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="11" t="s">
         <v>1</v>
       </c>
@@ -18470,7 +18474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="11" t="s">
         <v>1</v>
       </c>
@@ -18494,7 +18498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="11" t="s">
         <v>1</v>
       </c>
@@ -18518,7 +18522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="11" t="s">
         <v>396</v>
       </c>
@@ -18544,7 +18548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="11" t="s">
         <v>396</v>
       </c>
@@ -18570,7 +18574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
         <v>396</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="11" t="s">
         <v>396</v>
       </c>
@@ -18622,7 +18626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="11" t="s">
         <v>396</v>
       </c>
@@ -18648,7 +18652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="11" t="s">
         <v>396</v>
       </c>
@@ -18674,7 +18678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="11" t="s">
         <v>396</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="11" t="s">
         <v>396</v>
       </c>
@@ -18726,7 +18730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="11" t="s">
         <v>396</v>
       </c>
@@ -18752,7 +18756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
         <v>396</v>
       </c>
@@ -18778,7 +18782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="11" t="s">
         <v>396</v>
       </c>
@@ -18804,7 +18808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="11" t="s">
         <v>396</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="11" t="s">
         <v>396</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="11" t="s">
         <v>396</v>
       </c>
@@ -18882,7 +18886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="11" t="s">
         <v>396</v>
       </c>
@@ -18908,7 +18912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
         <v>396</v>
       </c>
@@ -18934,7 +18938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="11" t="s">
         <v>396</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="11" t="s">
         <v>396</v>
       </c>
@@ -18986,7 +18990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="11" t="s">
         <v>396</v>
       </c>
@@ -19012,7 +19016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="11" t="s">
         <v>396</v>
       </c>
@@ -19038,7 +19042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="11" t="s">
         <v>396</v>
       </c>
@@ -19064,7 +19068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="11" t="s">
         <v>396</v>
       </c>
@@ -19090,7 +19094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="11" t="s">
         <v>396</v>
       </c>
@@ -19116,7 +19120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="11" t="s">
         <v>396</v>
       </c>
@@ -19142,7 +19146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="11" t="s">
         <v>396</v>
       </c>
@@ -19168,7 +19172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="11" t="s">
         <v>396</v>
       </c>
@@ -19194,7 +19198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="11" t="s">
         <v>396</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="11" t="s">
         <v>396</v>
       </c>
@@ -19246,7 +19250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
         <v>396</v>
       </c>
@@ -19272,7 +19276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="11" t="s">
         <v>396</v>
       </c>
@@ -19298,7 +19302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="11" t="s">
         <v>396</v>
       </c>
@@ -19324,7 +19328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="11" t="s">
         <v>396</v>
       </c>
@@ -19350,7 +19354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="11" t="s">
         <v>396</v>
       </c>
@@ -19376,7 +19380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
         <v>396</v>
       </c>
@@ -19402,7 +19406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="11" t="s">
         <v>396</v>
       </c>
@@ -19428,7 +19432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="11" t="s">
         <v>396</v>
       </c>
@@ -19454,7 +19458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="11" t="s">
         <v>396</v>
       </c>
@@ -19480,7 +19484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="11" t="s">
         <v>396</v>
       </c>
@@ -19506,7 +19510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="11" t="s">
         <v>396</v>
       </c>
@@ -19532,7 +19536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="11" t="s">
         <v>396</v>
       </c>
@@ -19558,7 +19562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="11" t="s">
         <v>396</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="11" t="s">
         <v>396</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="11" t="s">
         <v>396</v>
       </c>
@@ -19636,7 +19640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="11" t="s">
         <v>396</v>
       </c>
@@ -19662,7 +19666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="11" t="s">
         <v>396</v>
       </c>
@@ -19688,7 +19692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="11" t="s">
         <v>396</v>
       </c>
@@ -19714,7 +19718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="11" t="s">
         <v>396</v>
       </c>
@@ -19740,7 +19744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="11" t="s">
         <v>396</v>
       </c>
@@ -19766,7 +19770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="11" t="s">
         <v>396</v>
       </c>
@@ -19792,7 +19796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="11" t="s">
         <v>396</v>
       </c>
@@ -19818,7 +19822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="11" t="s">
         <v>396</v>
       </c>
@@ -19844,7 +19848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="11" t="s">
         <v>396</v>
       </c>
@@ -19870,7 +19874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="11" t="s">
         <v>396</v>
       </c>
@@ -19896,7 +19900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="11" t="s">
         <v>396</v>
       </c>
@@ -19922,7 +19926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
         <v>2</v>
       </c>
@@ -19948,7 +19952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="11" t="s">
         <v>2</v>
       </c>
@@ -19974,7 +19978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="11" t="s">
         <v>2</v>
       </c>
@@ -20000,7 +20004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="11" t="s">
         <v>2</v>
       </c>
@@ -20026,7 +20030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="11" t="s">
         <v>2</v>
       </c>
@@ -20052,7 +20056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="11" t="s">
         <v>2</v>
       </c>
@@ -20078,7 +20082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="11" t="s">
         <v>2</v>
       </c>
@@ -20104,7 +20108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="11" t="s">
         <v>2</v>
       </c>
@@ -20130,7 +20134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="11" t="s">
         <v>2</v>
       </c>
@@ -20156,7 +20160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="11" t="s">
         <v>2</v>
       </c>
@@ -20182,7 +20186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="11" t="s">
         <v>2</v>
       </c>
@@ -20208,7 +20212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="11" t="s">
         <v>2</v>
       </c>
@@ -20234,7 +20238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="11" t="s">
         <v>2</v>
       </c>
@@ -20260,7 +20264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="11" t="s">
         <v>2</v>
       </c>
@@ -20286,7 +20290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="11" t="s">
         <v>2</v>
       </c>
@@ -20312,7 +20316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="11" t="s">
         <v>2</v>
       </c>
@@ -20338,7 +20342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="11" t="s">
         <v>2</v>
       </c>
@@ -20364,7 +20368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="11" t="s">
         <v>2</v>
       </c>
@@ -20390,7 +20394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="11" t="s">
         <v>2</v>
       </c>
@@ -20416,7 +20420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="11" t="s">
         <v>2</v>
       </c>
@@ -20442,7 +20446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="11" t="s">
         <v>2</v>
       </c>
@@ -20468,7 +20472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="11" t="s">
         <v>2</v>
       </c>
@@ -20494,7 +20498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="11" t="s">
         <v>2</v>
       </c>
@@ -20520,7 +20524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="11" t="s">
         <v>2</v>
       </c>
@@ -20546,7 +20550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="11" t="s">
         <v>2</v>
       </c>
@@ -20572,7 +20576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="11" t="s">
         <v>2</v>
       </c>
@@ -20598,7 +20602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="11" t="s">
         <v>2</v>
       </c>
@@ -20624,7 +20628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="11" t="s">
         <v>2</v>
       </c>
@@ -20650,7 +20654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="11" t="s">
         <v>2</v>
       </c>
@@ -20676,7 +20680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="11" t="s">
         <v>2</v>
       </c>
@@ -20702,7 +20706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="11" t="s">
         <v>2</v>
       </c>
@@ -20728,7 +20732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="11" t="s">
         <v>2</v>
       </c>
@@ -20754,7 +20758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="11" t="s">
         <v>2</v>
       </c>
@@ -20780,7 +20784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="11" t="s">
         <v>2</v>
       </c>
@@ -20806,7 +20810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="11" t="s">
         <v>2</v>
       </c>
@@ -20832,7 +20836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="11" t="s">
         <v>2</v>
       </c>
@@ -20858,7 +20862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="11" t="s">
         <v>2</v>
       </c>
@@ -20884,7 +20888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="11" t="s">
         <v>2</v>
       </c>
@@ -20910,7 +20914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="11" t="s">
         <v>2</v>
       </c>
@@ -20936,7 +20940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="11" t="s">
         <v>2</v>
       </c>
@@ -20962,7 +20966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="11" t="s">
         <v>2</v>
       </c>
@@ -20988,7 +20992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="11" t="s">
         <v>2</v>
       </c>
@@ -21014,7 +21018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="11" t="s">
         <v>2</v>
       </c>
@@ -21040,7 +21044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="11" t="s">
         <v>2</v>
       </c>
@@ -21066,7 +21070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="11" t="s">
         <v>2</v>
       </c>
@@ -21092,7 +21096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="11" t="s">
         <v>2</v>
       </c>
@@ -21118,7 +21122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="11" t="s">
         <v>2</v>
       </c>
@@ -21144,7 +21148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="11" t="s">
         <v>2</v>
       </c>
@@ -21170,7 +21174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="11" t="s">
         <v>2</v>
       </c>
@@ -21196,7 +21200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="11" t="s">
         <v>2</v>
       </c>
@@ -21222,7 +21226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="11" t="s">
         <v>2</v>
       </c>
@@ -21248,7 +21252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="11" t="s">
         <v>2</v>
       </c>
@@ -21274,7 +21278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="11" t="s">
         <v>2</v>
       </c>
@@ -21300,7 +21304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="11" t="s">
         <v>2</v>
       </c>
@@ -21326,7 +21330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="11" t="s">
         <v>2</v>
       </c>
@@ -21352,7 +21356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="11" t="s">
         <v>2</v>
       </c>
@@ -21378,7 +21382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="11" t="s">
         <v>2</v>
       </c>
@@ -21404,7 +21408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="11" t="s">
         <v>2</v>
       </c>
@@ -21430,7 +21434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="11" t="s">
         <v>2</v>
       </c>
@@ -21456,7 +21460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="11" t="s">
         <v>2</v>
       </c>
@@ -21482,7 +21486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="11" t="s">
         <v>2</v>
       </c>
@@ -21508,7 +21512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="11" t="s">
         <v>2</v>
       </c>
@@ -21534,7 +21538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="11" t="s">
         <v>2</v>
       </c>
@@ -21560,7 +21564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="11" t="s">
         <v>2</v>
       </c>
@@ -21586,7 +21590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="11" t="s">
         <v>2</v>
       </c>
@@ -21612,7 +21616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="11" t="s">
         <v>2</v>
       </c>
@@ -21638,7 +21642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="11" t="s">
         <v>2</v>
       </c>
@@ -21664,7 +21668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="11" t="s">
         <v>2</v>
       </c>
@@ -21690,7 +21694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="11" t="s">
         <v>2</v>
       </c>
@@ -21716,7 +21720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="11" t="s">
         <v>2</v>
       </c>
@@ -21742,7 +21746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="11" t="s">
         <v>2</v>
       </c>
@@ -21768,7 +21772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="11" t="s">
         <v>2</v>
       </c>
@@ -21794,7 +21798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="11" t="s">
         <v>2</v>
       </c>
@@ -21820,7 +21824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="11" t="s">
         <v>2</v>
       </c>
@@ -21846,7 +21850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="11" t="s">
         <v>2</v>
       </c>
@@ -21872,7 +21876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="11" t="s">
         <v>2</v>
       </c>
@@ -21898,7 +21902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="11" t="s">
         <v>2</v>
       </c>
@@ -21924,7 +21928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="11" t="s">
         <v>2</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="11" t="s">
         <v>2</v>
       </c>
@@ -21976,7 +21980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="11" t="s">
         <v>2</v>
       </c>
@@ -22002,7 +22006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="11" t="s">
         <v>2</v>
       </c>
@@ -22028,7 +22032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="11" t="s">
         <v>2</v>
       </c>
@@ -22054,7 +22058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="11" t="s">
         <v>2</v>
       </c>
@@ -22080,7 +22084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="11" t="s">
         <v>2</v>
       </c>
@@ -22106,7 +22110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="11" t="s">
         <v>2</v>
       </c>
@@ -22132,7 +22136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="11" t="s">
         <v>2</v>
       </c>
@@ -22158,7 +22162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="11" t="s">
         <v>2</v>
       </c>
@@ -22184,7 +22188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="11" t="s">
         <v>2</v>
       </c>
@@ -22210,7 +22214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="11" t="s">
         <v>2</v>
       </c>
@@ -22236,7 +22240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="11" t="s">
         <v>2</v>
       </c>
@@ -22262,7 +22266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="11" t="s">
         <v>2</v>
       </c>
@@ -22288,7 +22292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="11" t="s">
         <v>2</v>
       </c>
@@ -22314,7 +22318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="11" t="s">
         <v>2</v>
       </c>
@@ -22340,7 +22344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="11" t="s">
         <v>2</v>
       </c>
@@ -22366,7 +22370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="11" t="s">
         <v>2</v>
       </c>
@@ -22392,7 +22396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="11" t="s">
         <v>2</v>
       </c>
@@ -22418,7 +22422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="11" t="s">
         <v>2</v>
       </c>
@@ -22444,7 +22448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="11" t="s">
         <v>2</v>
       </c>
@@ -22470,7 +22474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="11" t="s">
         <v>2</v>
       </c>
@@ -22496,7 +22500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="11" t="s">
         <v>2</v>
       </c>
@@ -22522,7 +22526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="11" t="s">
         <v>2</v>
       </c>
@@ -22548,7 +22552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="11" t="s">
         <v>2</v>
       </c>
@@ -22574,7 +22578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="11" t="s">
         <v>2</v>
       </c>
@@ -22600,7 +22604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="11" t="s">
         <v>2</v>
       </c>
@@ -22626,7 +22630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="11" t="s">
         <v>2</v>
       </c>
@@ -22652,7 +22656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="11" t="s">
         <v>2</v>
       </c>
@@ -22678,7 +22682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="11" t="s">
         <v>2</v>
       </c>
@@ -22704,7 +22708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="11" t="s">
         <v>2</v>
       </c>
@@ -22730,7 +22734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="11" t="s">
         <v>2</v>
       </c>
@@ -22756,7 +22760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="11" t="s">
         <v>2</v>
       </c>
@@ -22782,7 +22786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="11" t="s">
         <v>2</v>
       </c>
@@ -22808,7 +22812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="11" t="s">
         <v>2</v>
       </c>
@@ -22834,7 +22838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="11" t="s">
         <v>2</v>
       </c>
@@ -22860,7 +22864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="11" t="s">
         <v>2</v>
       </c>
@@ -22886,7 +22890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="11" t="s">
         <v>2</v>
       </c>
@@ -22912,7 +22916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="11" t="s">
         <v>2</v>
       </c>
@@ -22938,7 +22942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="11" t="s">
         <v>2</v>
       </c>
@@ -22964,7 +22968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="11" t="s">
         <v>2</v>
       </c>
@@ -22990,7 +22994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="11" t="s">
         <v>2</v>
       </c>
@@ -23016,7 +23020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="11" t="s">
         <v>2</v>
       </c>
@@ -23042,7 +23046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="11" t="s">
         <v>2</v>
       </c>
@@ -23068,7 +23072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="11" t="s">
         <v>2</v>
       </c>
@@ -23094,7 +23098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="11" t="s">
         <v>2</v>
       </c>
@@ -23120,7 +23124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="11" t="s">
         <v>2</v>
       </c>
@@ -23146,7 +23150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="11" t="s">
         <v>2</v>
       </c>
@@ -23172,7 +23176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="11" t="s">
         <v>2</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="11" t="s">
         <v>2</v>
       </c>
@@ -23224,7 +23228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="11" t="s">
         <v>2</v>
       </c>
@@ -23250,7 +23254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="11" t="s">
         <v>2</v>
       </c>
@@ -23276,7 +23280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="11" t="s">
         <v>2</v>
       </c>
@@ -23302,7 +23306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="11" t="s">
         <v>2</v>
       </c>
@@ -23328,7 +23332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="11" t="s">
         <v>2</v>
       </c>
@@ -23354,7 +23358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="11" t="s">
         <v>2</v>
       </c>
@@ -23380,7 +23384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="11" t="s">
         <v>2</v>
       </c>
@@ -23406,7 +23410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="11" t="s">
         <v>2</v>
       </c>
@@ -23432,7 +23436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="11" t="s">
         <v>2</v>
       </c>
@@ -23458,7 +23462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="15" t="s">
         <v>2</v>
       </c>
@@ -23485,6 +23489,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H807" xr:uid="{F25FF2DF-7C89-4CF3-B01A-EB07950AFA9B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Andalas East-2"/>
+        <filter val="Name"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23493,9 +23505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD55F90-A715-4D7B-9DEF-2A0CB854A3FA}">
   <dimension ref="A1:Z819"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S467" sqref="S467"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L443" sqref="L443:L461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56050,7 +56062,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
@@ -61913,7 +61925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9371F8-BC09-43F8-A266-1289F6D3BF61}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
